--- a/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
+++ b/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SMARTFREN_ISI_PULSA" sheetId="1" r:id="rId1"/>
     <sheet name="SMARTFREN_BELI_PAKET" sheetId="2" r:id="rId2"/>
+    <sheet name="SMARFERN_SYS_CONFIG" sheetId="3" r:id="rId3"/>
+    <sheet name="SMARTFERN_OUTLET_CREATION" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -26,6 +28,9 @@
     <t>TestDataId</t>
   </si>
   <si>
+    <t>Scenario</t>
+  </si>
+  <si>
     <t>MDN_Number</t>
   </si>
   <si>
@@ -53,12 +58,18 @@
     <t>PIN_NUMBER_Digit6</t>
   </si>
   <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
     <t>TC_001</t>
   </si>
   <si>
     <t>TD_01</t>
   </si>
   <si>
+    <t>NEGATIVE</t>
+  </si>
+  <si>
     <t>Eload Balance</t>
   </si>
   <si>
@@ -84,6 +95,12 @@
   </si>
   <si>
     <t>TD_04</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Su    Mo    Tu</t>
   </si>
 </sst>
 </file>
@@ -783,9 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -822,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1157,180 +1174,205 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.4285714285714" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="16.5714285714286" style="12" customWidth="1"/>
+    <col min="2" max="4" width="11.1428571428571" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.2857142857143" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.5714285714286" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.2857142857143" style="12" customWidth="1"/>
+    <col min="12" max="12" width="10.1428571428571" style="12" customWidth="1"/>
+    <col min="13" max="13" width="19.4285714285714" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.5714285714286" style="12" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="7" t="str">
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:14">
+      <c r="A2" s="6" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13">
         <v>88903200313</v>
       </c>
-      <c r="E2" s="9">
-        <v>28000</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="F2" s="8">
+        <v>50000</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="11">
         <v>2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="I2" s="11">
         <v>5</v>
       </c>
-      <c r="I2" s="12">
-        <v>6</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11">
         <v>0</v>
       </c>
-      <c r="K2" s="12">
+      <c r="L2" s="11">
         <v>9</v>
       </c>
-      <c r="L2" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:12">
-      <c r="A3" s="7" t="str">
+      <c r="M2" s="11">
+        <v>6</v>
+      </c>
+      <c r="N2" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" spans="1:14">
+      <c r="A3" s="6" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8">
         <v>88903200553</v>
       </c>
-      <c r="E3" s="9">
-        <v>29000</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="F3" s="8">
+        <v>51000</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I3" s="11">
         <v>5</v>
       </c>
-      <c r="I3" s="12">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="12">
+      <c r="L3" s="11">
         <v>9</v>
       </c>
-      <c r="L3" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="7" t="str">
+      <c r="M3" s="11">
+        <v>6</v>
+      </c>
+      <c r="N3" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" spans="1:14">
+      <c r="A4" s="6" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="8">
         <v>88903200553</v>
       </c>
-      <c r="E4" s="9">
-        <v>30000</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="8">
+        <v>52000</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="11">
         <v>5</v>
       </c>
-      <c r="I4" s="12">
-        <v>6</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="12">
+      <c r="L4" s="11">
         <v>9</v>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+      <c r="N4" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1352,801 +1394,801 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.2857142857143" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42857142857143" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="16.5714285714286" style="12" customWidth="1"/>
+    <col min="2" max="3" width="11.1428571428571" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.2857142857143" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.2857142857143" style="12" customWidth="1"/>
+    <col min="8" max="8" width="21.1428571428571" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.2857142857143" style="12" customWidth="1"/>
+    <col min="12" max="12" width="10.1428571428571" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.42857142857143" style="12" customWidth="1"/>
+    <col min="14" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="7" t="str">
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:13">
+      <c r="A2" s="6" t="str">
         <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8">
         <v>88903200691</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>9</v>
+      </c>
+      <c r="M2" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" spans="1:13">
+      <c r="A3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="D3" s="8">
+        <v>88903200691</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>9</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" spans="1:13">
+      <c r="A4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="D4" s="8">
+        <v>88903200702</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>9</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" spans="1:13">
+      <c r="A5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12">
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>88903200702</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I5" s="11">
         <v>5</v>
       </c>
-      <c r="J2" s="12">
-        <v>6</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="J5" s="11">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11">
         <v>0</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L5" s="11">
         <v>9</v>
       </c>
-      <c r="M2" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_02</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9">
-        <v>88903200691</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="12">
-        <v>2</v>
-      </c>
-      <c r="I3" s="12">
-        <v>5</v>
-      </c>
-      <c r="J3" s="12">
-        <v>6</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
-      <c r="A4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_03</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="9">
-        <v>88903200702</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2</v>
-      </c>
-      <c r="I4" s="12">
-        <v>5</v>
-      </c>
-      <c r="J4" s="12">
-        <v>6</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>9</v>
-      </c>
-      <c r="M4" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_04</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="9">
-        <v>88903200702</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="12">
-        <v>2</v>
-      </c>
-      <c r="I5" s="12">
-        <v>5</v>
-      </c>
-      <c r="J5" s="12">
-        <v>6</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>9</v>
-      </c>
-      <c r="M5" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
-      <c r="A6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
-      <c r="A7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
-      <c r="A8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
-      <c r="A12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
-      <c r="A13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:1">
-      <c r="A14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:1">
-      <c r="A15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
-      <c r="A16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
-      <c r="A17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:1">
-      <c r="A18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:1">
-      <c r="A20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:1">
-      <c r="A21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:1">
-      <c r="A31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:1">
-      <c r="A32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:1">
-      <c r="A33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:1">
-      <c r="A34" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:1">
-      <c r="A36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:1">
-      <c r="A37" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:1">
-      <c r="A38" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:1">
-      <c r="A39" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:1">
-      <c r="A40" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:1">
-      <c r="A41" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:1">
-      <c r="A42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:1">
-      <c r="A43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:1">
-      <c r="A44" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:1">
-      <c r="A45" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:1">
-      <c r="A46" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:1">
-      <c r="A47" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:1">
-      <c r="A48" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:1">
-      <c r="A49" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:1">
-      <c r="A50" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:1">
-      <c r="A51" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:1">
-      <c r="A52" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:1">
-      <c r="A53" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:1">
-      <c r="A54" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:1">
-      <c r="A55" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:1">
-      <c r="A56" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:1">
-      <c r="A57" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:1">
-      <c r="A58" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:1">
-      <c r="A59" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:1">
-      <c r="A60" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:1">
-      <c r="A61" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:1">
-      <c r="A62" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:1">
-      <c r="A63" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:1">
-      <c r="A64" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:1">
-      <c r="A65" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:1">
-      <c r="A66" s="7" t="str">
+      <c r="M5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" spans="1:1">
+      <c r="A6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" spans="1:1">
+      <c r="A7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" spans="1:1">
+      <c r="A8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" spans="1:1">
+      <c r="A9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" spans="1:1">
+      <c r="A10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" spans="1:1">
+      <c r="A11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="1" spans="1:1">
+      <c r="A12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" spans="1:1">
+      <c r="A13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:1">
+      <c r="A14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" spans="1:1">
+      <c r="A15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:1">
+      <c r="A16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" spans="1:1">
+      <c r="A17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="1:1">
+      <c r="A18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="1" spans="1:1">
+      <c r="A19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" spans="1:1">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="1" spans="1:1">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" spans="1:1">
+      <c r="A22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="1" spans="1:1">
+      <c r="A23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="12" customFormat="1" spans="1:1">
+      <c r="A24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" s="12" customFormat="1" spans="1:1">
+      <c r="A25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="12" customFormat="1" spans="1:1">
+      <c r="A26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" s="12" customFormat="1" spans="1:1">
+      <c r="A27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" s="12" customFormat="1" spans="1:1">
+      <c r="A28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" s="12" customFormat="1" spans="1:1">
+      <c r="A29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" s="12" customFormat="1" spans="1:1">
+      <c r="A30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" s="12" customFormat="1" spans="1:1">
+      <c r="A31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" s="12" customFormat="1" spans="1:1">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" s="12" customFormat="1" spans="1:1">
+      <c r="A33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" s="12" customFormat="1" spans="1:1">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" s="12" customFormat="1" spans="1:1">
+      <c r="A35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" s="12" customFormat="1" spans="1:1">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" s="12" customFormat="1" spans="1:1">
+      <c r="A37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" s="12" customFormat="1" spans="1:1">
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" s="12" customFormat="1" spans="1:1">
+      <c r="A39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" s="12" customFormat="1" spans="1:1">
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" s="12" customFormat="1" spans="1:1">
+      <c r="A41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" s="12" customFormat="1" spans="1:1">
+      <c r="A42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" s="12" customFormat="1" spans="1:1">
+      <c r="A43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" s="12" customFormat="1" spans="1:1">
+      <c r="A44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" s="12" customFormat="1" spans="1:1">
+      <c r="A45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" s="12" customFormat="1" spans="1:1">
+      <c r="A46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" s="12" customFormat="1" spans="1:1">
+      <c r="A47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" s="12" customFormat="1" spans="1:1">
+      <c r="A48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" s="12" customFormat="1" spans="1:1">
+      <c r="A49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" s="12" customFormat="1" spans="1:1">
+      <c r="A50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" s="12" customFormat="1" spans="1:1">
+      <c r="A51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" s="12" customFormat="1" spans="1:1">
+      <c r="A52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" s="12" customFormat="1" spans="1:1">
+      <c r="A53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" s="12" customFormat="1" spans="1:1">
+      <c r="A54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" s="12" customFormat="1" spans="1:1">
+      <c r="A55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" s="12" customFormat="1" spans="1:1">
+      <c r="A56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" s="12" customFormat="1" spans="1:1">
+      <c r="A57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" s="12" customFormat="1" spans="1:1">
+      <c r="A58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" s="12" customFormat="1" spans="1:1">
+      <c r="A59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" s="12" customFormat="1" spans="1:1">
+      <c r="A60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" s="12" customFormat="1" spans="1:1">
+      <c r="A61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" s="12" customFormat="1" spans="1:1">
+      <c r="A62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" s="12" customFormat="1" spans="1:1">
+      <c r="A63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" s="12" customFormat="1" spans="1:1">
+      <c r="A64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" s="12" customFormat="1" spans="1:1">
+      <c r="A65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" s="12" customFormat="1" spans="1:1">
+      <c r="A66" s="6" t="str">
         <f t="shared" ref="A66:A100" si="1">_xlfn.CONCAT(B66:C66)</f>
         <v/>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" spans="1:1">
-      <c r="A67" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:1">
-      <c r="A68" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:1">
-      <c r="A69" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:1">
-      <c r="A70" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:1">
-      <c r="A71" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:1">
-      <c r="A72" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:1">
-      <c r="A73" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:1">
-      <c r="A74" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:1">
-      <c r="A75" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:1">
-      <c r="A76" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:1">
-      <c r="A77" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:1">
-      <c r="A78" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:1">
-      <c r="A79" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:1">
-      <c r="A80" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:1">
-      <c r="A81" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="1:1">
-      <c r="A82" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" spans="1:1">
-      <c r="A83" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" spans="1:1">
-      <c r="A84" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" spans="1:1">
-      <c r="A85" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" spans="1:1">
-      <c r="A86" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" spans="1:1">
-      <c r="A87" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" spans="1:1">
-      <c r="A88" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" spans="1:1">
-      <c r="A89" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" spans="1:1">
-      <c r="A90" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" spans="1:1">
-      <c r="A91" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" spans="1:1">
-      <c r="A92" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" spans="1:1">
-      <c r="A93" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="1:1">
-      <c r="A94" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" spans="1:1">
-      <c r="A95" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" spans="1:1">
-      <c r="A96" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" spans="1:1">
-      <c r="A97" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" spans="1:1">
-      <c r="A98" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" spans="1:1">
-      <c r="A99" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" spans="1:1">
-      <c r="A100" s="7" t="str">
+    <row r="67" s="12" customFormat="1" spans="1:1">
+      <c r="A67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" s="12" customFormat="1" spans="1:1">
+      <c r="A68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" s="12" customFormat="1" spans="1:1">
+      <c r="A69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" s="12" customFormat="1" spans="1:1">
+      <c r="A70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" s="12" customFormat="1" spans="1:1">
+      <c r="A71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" s="12" customFormat="1" spans="1:1">
+      <c r="A72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" s="12" customFormat="1" spans="1:1">
+      <c r="A73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" s="12" customFormat="1" spans="1:1">
+      <c r="A74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" s="12" customFormat="1" spans="1:1">
+      <c r="A75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" s="12" customFormat="1" spans="1:1">
+      <c r="A76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" s="12" customFormat="1" spans="1:1">
+      <c r="A77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" s="12" customFormat="1" spans="1:1">
+      <c r="A78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" s="12" customFormat="1" spans="1:1">
+      <c r="A79" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" s="12" customFormat="1" spans="1:1">
+      <c r="A80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" s="12" customFormat="1" spans="1:1">
+      <c r="A81" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" s="12" customFormat="1" spans="1:1">
+      <c r="A82" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" s="12" customFormat="1" spans="1:1">
+      <c r="A83" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" s="12" customFormat="1" spans="1:1">
+      <c r="A84" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" s="12" customFormat="1" spans="1:1">
+      <c r="A85" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" s="12" customFormat="1" spans="1:1">
+      <c r="A86" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" s="12" customFormat="1" spans="1:1">
+      <c r="A87" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" s="12" customFormat="1" spans="1:1">
+      <c r="A88" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" s="12" customFormat="1" spans="1:1">
+      <c r="A89" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" s="12" customFormat="1" spans="1:1">
+      <c r="A90" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" s="12" customFormat="1" spans="1:1">
+      <c r="A91" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" s="12" customFormat="1" spans="1:1">
+      <c r="A92" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" s="12" customFormat="1" spans="1:1">
+      <c r="A93" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" s="12" customFormat="1" spans="1:1">
+      <c r="A94" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" s="12" customFormat="1" spans="1:1">
+      <c r="A95" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" s="12" customFormat="1" spans="1:1">
+      <c r="A96" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" s="12" customFormat="1" spans="1:1">
+      <c r="A97" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" s="12" customFormat="1" spans="1:1">
+      <c r="A98" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" s="12" customFormat="1" spans="1:1">
+      <c r="A99" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" s="12" customFormat="1" spans="1:1">
+      <c r="A100" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2161,4 +2203,448 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="24.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="19.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>88903200691</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>9</v>
+      </c>
+      <c r="M2" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="str">
+        <f>_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>88903200691</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>9</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="str">
+        <f>_xlfn.CONCAT(B4:C4)</f>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>88903200702</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>9</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="str">
+        <f>_xlfn.CONCAT(B5:C5)</f>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>88903200702</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="11">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>9</v>
+      </c>
+      <c r="M5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="23.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>88903200691</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>9</v>
+      </c>
+      <c r="M2" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="str">
+        <f>_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>88903200691</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>9</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="str">
+        <f>_xlfn.CONCAT(B4:C4)</f>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>88903200702</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>9</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="str">
+        <f>_xlfn.CONCAT(B5:C5)</f>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>88903200702</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>9</v>
+      </c>
+      <c r="M5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
+++ b/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SMARTFREN_ISI_PULSA" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -58,7 +58,7 @@
     <t>PIN_NUMBER_Digit6</t>
   </si>
   <si>
-    <t>COMMENT</t>
+    <t>MESSAGE</t>
   </si>
   <si>
     <t>TC_001</t>
@@ -67,18 +67,28 @@
     <t>TD_01</t>
   </si>
   <si>
+    <t>POSITIVE</t>
+  </si>
+  <si>
+    <t>Eload Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Successful
+</t>
+  </si>
+  <si>
+    <t>TD_02</t>
+  </si>
+  <si>
     <t>NEGATIVE</t>
   </si>
   <si>
-    <t>Eload Balance</t>
-  </si>
-  <si>
-    <t>TD_02</t>
-  </si>
-  <si>
     <t>TD_03</t>
   </si>
   <si>
+    <t>Transaksi terdeteksi sebagai duplikat</t>
+  </si>
+  <si>
     <t>Package</t>
   </si>
   <si>
@@ -88,19 +98,25 @@
     <t>Rp 22.500</t>
   </si>
   <si>
+    <t>TD_04</t>
+  </si>
+  <si>
     <t>Internet 10rb</t>
   </si>
   <si>
     <t>Rp 10.000</t>
   </si>
   <si>
-    <t>TD_04</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Su    Mo    Tu</t>
+    <t>WEEKDAY</t>
+  </si>
+  <si>
+    <t>Wed,Fri</t>
+  </si>
+  <si>
+    <t>Tu,Su,Th</t>
+  </si>
+  <si>
+    <t>Mo,Su,Th</t>
   </si>
 </sst>
 </file>
@@ -113,7 +129,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +167,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="9.8"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
@@ -346,13 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,134 +692,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,9 +834,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,20 +848,29 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1176,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1187,13 +1216,13 @@
     <col min="5" max="5" width="13.7142857142857" style="12" customWidth="1"/>
     <col min="6" max="6" width="11.1428571428571" style="12" customWidth="1"/>
     <col min="7" max="7" width="15.2857142857143" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.5714285714286" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.57142857142857" style="12" customWidth="1"/>
     <col min="9" max="9" width="9" style="12" customWidth="1"/>
     <col min="10" max="10" width="10.5714285714286" style="12" customWidth="1"/>
     <col min="11" max="11" width="11.2857142857143" style="12" customWidth="1"/>
     <col min="12" max="12" width="10.1428571428571" style="12" customWidth="1"/>
     <col min="13" max="13" width="19.4285714285714" style="12" customWidth="1"/>
-    <col min="14" max="14" width="14.5714285714286" style="12" customWidth="1"/>
+    <col min="14" max="14" width="24.4285714285714" style="12" customWidth="1"/>
     <col min="15" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
@@ -1216,164 +1245,164 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" spans="1:14">
-      <c r="A2" s="6" t="str">
+    <row r="2" s="12" customFormat="1" ht="30" spans="1:14">
+      <c r="A2" s="5" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="14">
         <v>88903200313</v>
       </c>
-      <c r="F2" s="8">
-        <v>50000</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="7">
+        <v>38000</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="11">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="J2" s="8">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8">
         <v>0</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>9</v>
       </c>
-      <c r="M2" s="11">
-        <v>6</v>
-      </c>
-      <c r="N2" s="11">
-        <v>6</v>
+      <c r="M2" s="8">
+        <v>6</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" spans="1:14">
-      <c r="A3" s="6" t="str">
+    <row r="3" s="12" customFormat="1" ht="30" spans="1:14">
+      <c r="A3" s="5" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>88903200553</v>
+      </c>
+      <c r="F3" s="7">
+        <v>38000</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8">
+        <v>6</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>9</v>
+      </c>
+      <c r="M3" s="8">
+        <v>6</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8">
-        <v>88903200553</v>
-      </c>
-      <c r="F3" s="8">
-        <v>51000</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="11">
-        <v>5</v>
-      </c>
-      <c r="J3" s="11">
-        <v>6</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>9</v>
-      </c>
-      <c r="M3" s="11">
-        <v>6</v>
-      </c>
-      <c r="N3" s="11">
-        <v>6</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="1" spans="1:14">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="5" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
         <v>88903200553</v>
       </c>
-      <c r="F4" s="8">
-        <v>52000</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="7">
+        <v>38000</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>5</v>
       </c>
-      <c r="J4" s="11">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="8">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8">
         <v>0</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <v>9</v>
       </c>
-      <c r="M4" s="11">
-        <v>6</v>
-      </c>
-      <c r="N4" s="11">
-        <v>6</v>
+      <c r="M4" s="8">
+        <v>6</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1391,30 +1420,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="16.5714285714286" style="12" customWidth="1"/>
-    <col min="2" max="3" width="11.1428571428571" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.7142857142857" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.2857142857143" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.1428571428571" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.2857142857143" style="12" customWidth="1"/>
-    <col min="8" max="8" width="21.1428571428571" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.2857142857143" style="12" customWidth="1"/>
-    <col min="12" max="12" width="10.1428571428571" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.42857142857143" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="9.14285714285714" style="12"/>
+    <col min="2" max="4" width="11.1428571428571" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.2857142857143" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.1428571428571" style="12" customWidth="1"/>
+    <col min="8" max="8" width="15.2857142857143" style="12" customWidth="1"/>
+    <col min="9" max="9" width="21.1428571428571" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.5714285714286" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" style="12" customWidth="1"/>
+    <col min="13" max="13" width="10.1428571428571" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.42857142857143" style="12" customWidth="1"/>
+    <col min="15" max="15" width="17.7142857142857" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:13">
+    <row r="1" s="12" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,780 +1454,240 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:15">
+      <c r="A2" s="5" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E2" s="7">
+        <v>88903200691</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2</v>
+      </c>
+      <c r="J2" s="8">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="K2" s="8">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
+      <c r="N2" s="8">
+        <v>6</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" spans="1:13">
-      <c r="A2" s="6" t="str">
-        <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT(B2:C2)</f>
-        <v>TC_001TD_01</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="3" s="12" customFormat="1" spans="1:15">
+      <c r="A3" s="5" t="str">
+        <f>_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
         <v>88903200691</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8">
+        <v>6</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>9</v>
+      </c>
+      <c r="N3" s="8">
+        <v>6</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" spans="1:15">
+      <c r="A4" s="5" t="str">
+        <f>_xlfn.CONCAT(B4:C4)</f>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>88903200702</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>6</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>9</v>
+      </c>
+      <c r="N4" s="8">
+        <v>6</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="10" t="s">
+    </row>
+    <row r="5" s="12" customFormat="1" spans="1:15">
+      <c r="A5" s="5" t="str">
+        <f>_xlfn.CONCAT(B5:C5)</f>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>88903200702</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I5" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J5" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="11">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="K5" s="8">
+        <v>6</v>
+      </c>
+      <c r="L5" s="8">
         <v>0</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M5" s="8">
         <v>9</v>
       </c>
-      <c r="M2" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" s="12" customFormat="1" spans="1:13">
-      <c r="A3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_02</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8">
-        <v>88903200691</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="11">
-        <v>5</v>
-      </c>
-      <c r="J3" s="11">
-        <v>6</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>9</v>
-      </c>
-      <c r="M3" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" spans="1:13">
-      <c r="A4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_03</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8">
-        <v>88903200702</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="N5" s="8">
+        <v>6</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
-      <c r="I4" s="11">
-        <v>5</v>
-      </c>
-      <c r="J4" s="11">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>9</v>
-      </c>
-      <c r="M4" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" spans="1:13">
-      <c r="A5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>TC_001TD_04</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8">
-        <v>88903200702</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>9</v>
-      </c>
-      <c r="M5" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" spans="1:1">
-      <c r="A6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" spans="1:1">
-      <c r="A7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="1" spans="1:1">
-      <c r="A8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" s="12" customFormat="1" spans="1:1">
-      <c r="A9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" s="12" customFormat="1" spans="1:1">
-      <c r="A10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="1" spans="1:1">
-      <c r="A11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" s="12" customFormat="1" spans="1:1">
-      <c r="A12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" s="12" customFormat="1" spans="1:1">
-      <c r="A13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" s="12" customFormat="1" spans="1:1">
-      <c r="A14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" s="12" customFormat="1" spans="1:1">
-      <c r="A15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" s="12" customFormat="1" spans="1:1">
-      <c r="A16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" s="12" customFormat="1" spans="1:1">
-      <c r="A17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:1">
-      <c r="A18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="1:1">
-      <c r="A19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" s="12" customFormat="1" spans="1:1">
-      <c r="A20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="1:1">
-      <c r="A21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" s="12" customFormat="1" spans="1:1">
-      <c r="A22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" s="12" customFormat="1" spans="1:1">
-      <c r="A23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" s="12" customFormat="1" spans="1:1">
-      <c r="A24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" s="12" customFormat="1" spans="1:1">
-      <c r="A25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" s="12" customFormat="1" spans="1:1">
-      <c r="A26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" s="12" customFormat="1" spans="1:1">
-      <c r="A27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" s="12" customFormat="1" spans="1:1">
-      <c r="A28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" s="12" customFormat="1" spans="1:1">
-      <c r="A29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" s="12" customFormat="1" spans="1:1">
-      <c r="A30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" s="12" customFormat="1" spans="1:1">
-      <c r="A31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" s="12" customFormat="1" spans="1:1">
-      <c r="A32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" s="12" customFormat="1" spans="1:1">
-      <c r="A33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" s="12" customFormat="1" spans="1:1">
-      <c r="A34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" s="12" customFormat="1" spans="1:1">
-      <c r="A35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" s="12" customFormat="1" spans="1:1">
-      <c r="A36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" s="12" customFormat="1" spans="1:1">
-      <c r="A37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" s="12" customFormat="1" spans="1:1">
-      <c r="A38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" s="12" customFormat="1" spans="1:1">
-      <c r="A39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" s="12" customFormat="1" spans="1:1">
-      <c r="A40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" s="12" customFormat="1" spans="1:1">
-      <c r="A41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" s="12" customFormat="1" spans="1:1">
-      <c r="A42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" s="12" customFormat="1" spans="1:1">
-      <c r="A43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" s="12" customFormat="1" spans="1:1">
-      <c r="A44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" s="12" customFormat="1" spans="1:1">
-      <c r="A45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" s="12" customFormat="1" spans="1:1">
-      <c r="A46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" s="12" customFormat="1" spans="1:1">
-      <c r="A47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" s="12" customFormat="1" spans="1:1">
-      <c r="A48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" s="12" customFormat="1" spans="1:1">
-      <c r="A49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" s="12" customFormat="1" spans="1:1">
-      <c r="A50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" s="12" customFormat="1" spans="1:1">
-      <c r="A51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" s="12" customFormat="1" spans="1:1">
-      <c r="A52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="1" spans="1:1">
-      <c r="A53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" s="12" customFormat="1" spans="1:1">
-      <c r="A54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" s="12" customFormat="1" spans="1:1">
-      <c r="A55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="1" spans="1:1">
-      <c r="A56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" s="12" customFormat="1" spans="1:1">
-      <c r="A57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" s="12" customFormat="1" spans="1:1">
-      <c r="A58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="1" spans="1:1">
-      <c r="A59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" s="12" customFormat="1" spans="1:1">
-      <c r="A60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" s="12" customFormat="1" spans="1:1">
-      <c r="A61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" s="12" customFormat="1" spans="1:1">
-      <c r="A62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" s="12" customFormat="1" spans="1:1">
-      <c r="A63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" s="12" customFormat="1" spans="1:1">
-      <c r="A64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" s="12" customFormat="1" spans="1:1">
-      <c r="A65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" s="12" customFormat="1" spans="1:1">
-      <c r="A66" s="6" t="str">
-        <f t="shared" ref="A66:A100" si="1">_xlfn.CONCAT(B66:C66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" s="12" customFormat="1" spans="1:1">
-      <c r="A67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="1" spans="1:1">
-      <c r="A68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" s="12" customFormat="1" spans="1:1">
-      <c r="A69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" s="12" customFormat="1" spans="1:1">
-      <c r="A70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" s="12" customFormat="1" spans="1:1">
-      <c r="A71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" s="12" customFormat="1" spans="1:1">
-      <c r="A72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" s="12" customFormat="1" spans="1:1">
-      <c r="A73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" s="12" customFormat="1" spans="1:1">
-      <c r="A74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" s="12" customFormat="1" spans="1:1">
-      <c r="A75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" s="12" customFormat="1" spans="1:1">
-      <c r="A76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" s="12" customFormat="1" spans="1:1">
-      <c r="A77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" s="12" customFormat="1" spans="1:1">
-      <c r="A78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" s="12" customFormat="1" spans="1:1">
-      <c r="A79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" s="12" customFormat="1" spans="1:1">
-      <c r="A80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" s="12" customFormat="1" spans="1:1">
-      <c r="A81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" s="12" customFormat="1" spans="1:1">
-      <c r="A82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" s="12" customFormat="1" spans="1:1">
-      <c r="A83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" s="12" customFormat="1" spans="1:1">
-      <c r="A84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" s="12" customFormat="1" spans="1:1">
-      <c r="A85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" s="12" customFormat="1" spans="1:1">
-      <c r="A86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" s="12" customFormat="1" spans="1:1">
-      <c r="A87" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" s="12" customFormat="1" spans="1:1">
-      <c r="A88" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" s="12" customFormat="1" spans="1:1">
-      <c r="A89" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" s="12" customFormat="1" spans="1:1">
-      <c r="A90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" s="12" customFormat="1" spans="1:1">
-      <c r="A91" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" s="12" customFormat="1" spans="1:1">
-      <c r="A92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" s="12" customFormat="1" spans="1:1">
-      <c r="A93" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" s="12" customFormat="1" spans="1:1">
-      <c r="A94" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" s="12" customFormat="1" spans="1:1">
-      <c r="A95" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" s="12" customFormat="1" spans="1:1">
-      <c r="A96" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" s="12" customFormat="1" spans="1:1">
-      <c r="A97" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" s="12" customFormat="1" spans="1:1">
-      <c r="A98" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" s="12" customFormat="1" spans="1:1">
-      <c r="A99" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" s="12" customFormat="1" spans="1:1">
-      <c r="A100" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A100">
+  <conditionalFormatting sqref="A2:A5">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2239,198 +1729,198 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="5" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>88903200691</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="11">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="J2" s="8">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8">
         <v>0</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>9</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="5" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7">
         <v>88903200691</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
-        <v>6</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="8">
+        <v>6</v>
+      </c>
+      <c r="K3" s="8">
         <v>0</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>9</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="5" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
         <v>88903200702</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>5</v>
       </c>
-      <c r="J4" s="11">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="8">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8">
         <v>0</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <v>9</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_04</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
         <v>88903200702</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>5</v>
       </c>
-      <c r="J5" s="11">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="8">
+        <v>6</v>
+      </c>
+      <c r="K5" s="8">
         <v>0</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <v>9</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="8">
         <v>6</v>
       </c>
     </row>
@@ -2449,10 +1939,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -2460,13 +1950,10 @@
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="14.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="15.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="23.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="16.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,160 +1967,156 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="6" t="str">
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>88903200691</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11">
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8">
         <v>2</v>
       </c>
-      <c r="I2" s="11">
+      <c r="G2" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="11">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="H2" s="8">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8">
         <v>0</v>
       </c>
-      <c r="L2" s="11">
+      <c r="J2" s="8">
         <v>9</v>
       </c>
-      <c r="M2" s="11">
+      <c r="K2" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6" t="str">
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7">
         <v>88903200691</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11">
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="11">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
-        <v>6</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="H3" s="8">
+        <v>6</v>
+      </c>
+      <c r="I3" s="8">
         <v>0</v>
       </c>
-      <c r="L3" s="11">
+      <c r="J3" s="8">
         <v>9</v>
       </c>
-      <c r="M3" s="11">
+      <c r="K3" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6" t="str">
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
         <v>88903200702</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11">
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="11">
+      <c r="G4" s="8">
         <v>5</v>
       </c>
-      <c r="J4" s="11">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8">
         <v>0</v>
       </c>
-      <c r="L4" s="11">
+      <c r="J4" s="8">
         <v>9</v>
       </c>
-      <c r="M4" s="11">
+      <c r="K4" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6" t="str">
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_04</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
         <v>88903200702</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11">
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8">
         <v>2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="J5" s="11">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="H5" s="8">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="L5" s="11">
+      <c r="J5" s="8">
         <v>9</v>
       </c>
-      <c r="M5" s="11">
+      <c r="K5" s="8">
         <v>6</v>
       </c>
     </row>

--- a/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
+++ b/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SMARTFREN_ISI_PULSA" sheetId="1" r:id="rId1"/>
     <sheet name="SMARTFREN_BELI_PAKET" sheetId="2" r:id="rId2"/>
     <sheet name="SMARFERN_SYS_CONFIG" sheetId="3" r:id="rId3"/>
     <sheet name="SMARTFERN_OUTLET_CREATION" sheetId="4" r:id="rId4"/>
+    <sheet name="SMARTFERN_ADD_REFERNCE_KEY" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -117,6 +118,27 @@
   </si>
   <si>
     <t>Mo,Su,Th</t>
+  </si>
+  <si>
+    <t>DROP_DOWN</t>
+  </si>
+  <si>
+    <t>TEST_314</t>
+  </si>
+  <si>
+    <t>cofig exits by name</t>
+  </si>
+  <si>
+    <t>TEST_320</t>
+  </si>
+  <si>
+    <t>Cofig Created Successfully</t>
+  </si>
+  <si>
+    <t>TEST_321</t>
+  </si>
+  <si>
+    <t>TEST_322</t>
   </si>
 </sst>
 </file>
@@ -819,8 +841,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -848,6 +873,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -858,12 +889,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1206,202 +1231,202 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" style="12" customWidth="1"/>
-    <col min="2" max="4" width="11.1428571428571" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.1428571428571" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.2857142857143" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.57142857142857" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.2857142857143" style="12" customWidth="1"/>
-    <col min="12" max="12" width="10.1428571428571" style="12" customWidth="1"/>
-    <col min="13" max="13" width="19.4285714285714" style="12" customWidth="1"/>
-    <col min="14" max="14" width="24.4285714285714" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="9.14285714285714" style="12"/>
+    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.4285714285714" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:14">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" ht="30" spans="1:14">
-      <c r="A2" s="5" t="str">
+    <row r="2" s="1" customFormat="1" ht="30" spans="1:14">
+      <c r="A2" s="6" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="15">
         <v>88903200313</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>38000</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="11">
         <v>2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="11">
         <v>5</v>
       </c>
-      <c r="J2" s="8">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J2" s="11">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11">
         <v>0</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="11">
         <v>9</v>
       </c>
-      <c r="M2" s="8">
-        <v>6</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="11">
+        <v>6</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="30" spans="1:14">
-      <c r="A3" s="5" t="str">
+    <row r="3" s="1" customFormat="1" ht="30" spans="1:14">
+      <c r="A3" s="6" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>88903200553</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>38000</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="11">
         <v>5</v>
       </c>
-      <c r="J3" s="8">
-        <v>6</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="11">
         <v>9</v>
       </c>
-      <c r="M3" s="8">
-        <v>6</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="M3" s="11">
+        <v>6</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" spans="1:14">
-      <c r="A4" s="5" t="str">
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="6" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>88903200553</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>38000</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="11">
         <v>5</v>
       </c>
-      <c r="J4" s="8">
-        <v>6</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="11">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11">
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="11">
         <v>9</v>
       </c>
-      <c r="M4" s="8">
-        <v>6</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1428,258 +1453,258 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" style="12" customWidth="1"/>
-    <col min="2" max="4" width="11.1428571428571" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.2857142857143" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11.1428571428571" style="12" customWidth="1"/>
-    <col min="8" max="8" width="15.2857142857143" style="12" customWidth="1"/>
-    <col min="9" max="9" width="21.1428571428571" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9" style="12" customWidth="1"/>
-    <col min="11" max="11" width="10.5714285714286" style="12" customWidth="1"/>
-    <col min="12" max="12" width="11.2857142857143" style="12" customWidth="1"/>
-    <col min="13" max="13" width="10.1428571428571" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.42857142857143" style="12" customWidth="1"/>
-    <col min="15" max="15" width="17.7142857142857" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9.14285714285714" style="12"/>
+    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7142857142857" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" spans="1:15">
-      <c r="A2" s="5" t="str">
+    <row r="2" s="1" customFormat="1" spans="1:15">
+      <c r="A2" s="6" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>88903200691</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="11">
         <v>2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="11">
         <v>5</v>
       </c>
-      <c r="K2" s="8">
-        <v>6</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="11">
+        <v>6</v>
+      </c>
+      <c r="L2" s="11">
         <v>0</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="11">
         <v>9</v>
       </c>
-      <c r="N2" s="8">
-        <v>6</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="11">
+        <v>6</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" spans="1:15">
-      <c r="A3" s="5" t="str">
+    <row r="3" s="1" customFormat="1" spans="1:15">
+      <c r="A3" s="6" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>88903200691</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="11">
         <v>5</v>
       </c>
-      <c r="K3" s="8">
-        <v>6</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="K3" s="11">
+        <v>6</v>
+      </c>
+      <c r="L3" s="11">
         <v>0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="11">
         <v>9</v>
       </c>
-      <c r="N3" s="8">
-        <v>6</v>
-      </c>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="11">
+        <v>6</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" spans="1:15">
-      <c r="A4" s="5" t="str">
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="6" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>88903200702</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="11">
         <v>2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="11">
         <v>5</v>
       </c>
-      <c r="K4" s="8">
-        <v>6</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="11">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11">
         <v>0</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="11">
         <v>9</v>
       </c>
-      <c r="N4" s="8">
-        <v>6</v>
-      </c>
-      <c r="O4" s="13" t="s">
+      <c r="N4" s="11">
+        <v>6</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:15">
-      <c r="A5" s="5" t="str">
+    <row r="5" s="1" customFormat="1" spans="1:15">
+      <c r="A5" s="6" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_04</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>88903200702</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="11">
         <v>2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="11">
         <v>5</v>
       </c>
-      <c r="K5" s="8">
-        <v>6</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="K5" s="11">
+        <v>6</v>
+      </c>
+      <c r="L5" s="11">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="11">
         <v>9</v>
       </c>
-      <c r="N5" s="8">
-        <v>6</v>
-      </c>
-      <c r="O5" s="13" t="s">
+      <c r="N5" s="11">
+        <v>6</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1716,211 +1741,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="6" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>88903200691</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="11">
         <v>2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="11">
         <v>5</v>
       </c>
-      <c r="J2" s="8">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J2" s="11">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11">
         <v>0</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="11">
         <v>9</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="6" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>88903200691</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="11">
         <v>5</v>
       </c>
-      <c r="J3" s="8">
-        <v>6</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="11">
         <v>9</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="6" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>88903200702</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="11">
         <v>5</v>
       </c>
-      <c r="J4" s="8">
-        <v>6</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="11">
+        <v>6</v>
+      </c>
+      <c r="K4" s="11">
         <v>0</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="11">
         <v>9</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="6" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_04</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>88903200702</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="11">
         <v>5</v>
       </c>
-      <c r="J5" s="8">
-        <v>6</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J5" s="11">
+        <v>6</v>
+      </c>
+      <c r="K5" s="11">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="11">
         <v>9</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="11">
         <v>6</v>
       </c>
     </row>
@@ -1941,8 +1966,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1954,170 +1979,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="6" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>88903200691</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="11">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="11">
         <v>5</v>
       </c>
-      <c r="H2" s="8">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" s="11">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="11">
         <v>9</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="6" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>88903200691</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="11">
         <v>5</v>
       </c>
-      <c r="H3" s="8">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" s="11">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="11">
         <v>9</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="6" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>88903200702</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="11">
         <v>2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="11">
         <v>5</v>
       </c>
-      <c r="H4" s="8">
-        <v>6</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H4" s="11">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="11">
         <v>9</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="6" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_04</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>88903200702</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11">
         <v>5</v>
       </c>
-      <c r="H5" s="8">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="11">
         <v>9</v>
       </c>
-      <c r="K5" s="8">
-        <v>6</v>
+      <c r="K5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="20.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="str">
+        <f>_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="str">
+        <f>_xlfn.CONCAT(B3:C3)</f>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="str">
+        <f>_xlfn.CONCAT(B4:C4)</f>
+        <v>TC_001TD_03</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="str">
+        <f>_xlfn.CONCAT(B5:C5)</f>
+        <v>TC_001TD_04</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
+++ b/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="SMARTFREN_ISI_PULSA" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,12 @@
     <t>TD_02</t>
   </si>
   <si>
+    <t>TD_03</t>
+  </si>
+  <si>
     <t>NEGATIVE</t>
   </si>
   <si>
-    <t>TD_03</t>
-  </si>
-  <si>
     <t>Transaksi terdeteksi sebagai duplikat</t>
   </si>
   <si>
@@ -129,16 +129,16 @@
     <t>cofig exits by name</t>
   </si>
   <si>
-    <t>TEST_320</t>
+    <t>TEST_340</t>
   </si>
   <si>
     <t>Cofig Created Successfully</t>
   </si>
   <si>
-    <t>TEST_321</t>
-  </si>
-  <si>
-    <t>TEST_322</t>
+    <t>TEST_341</t>
+  </si>
+  <si>
+    <t>TEST_342</t>
   </si>
 </sst>
 </file>
@@ -1230,8 +1230,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1313,7 +1313,7 @@
         <v>88903200313</v>
       </c>
       <c r="F2" s="8">
-        <v>38000</v>
+        <v>39000</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>17</v>
@@ -1352,13 +1352,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8">
         <v>88903200553</v>
       </c>
       <c r="F3" s="8">
-        <v>38000</v>
+        <v>39000</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>17</v>
@@ -1394,16 +1394,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="8">
         <v>88903200553</v>
       </c>
       <c r="F4" s="8">
-        <v>38000</v>
+        <v>39000</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>17</v>
@@ -1448,7 +1448,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1528,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="8">
         <v>88903200691</v>
@@ -1576,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8">
         <v>88903200691</v>
@@ -1621,10 +1621,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="8">
         <v>88903200702</v>
@@ -1672,7 +1672,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="8">
         <v>88903200702</v>
@@ -1874,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8">
         <v>88903200702</v>
@@ -2082,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8">
         <v>88903200702</v>
@@ -2162,15 +2162,15 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="20.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="31.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2205,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>34</v>
@@ -2244,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>

--- a/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
+++ b/Resource/TestData/SMARTFREN_DATAPOOL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SMARTFREN_ISI_PULSA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>DUPLICATE_ENTRY</t>
   </si>
@@ -81,24 +81,24 @@
     <t>TD_02</t>
   </si>
   <si>
+    <t>Transaksi terdeteksi sebagai duplikat</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>NEGATIVE</t>
+  </si>
+  <si>
+    <t>Unlimited Maxi 22,5 RB</t>
+  </si>
+  <si>
+    <t>Rp 22.500</t>
+  </si>
+  <si>
     <t>TD_03</t>
   </si>
   <si>
-    <t>NEGATIVE</t>
-  </si>
-  <si>
-    <t>Transaksi terdeteksi sebagai duplikat</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Unlimited Maxi 22,5 RB</t>
-  </si>
-  <si>
-    <t>Rp 22.500</t>
-  </si>
-  <si>
     <t>TD_04</t>
   </si>
   <si>
@@ -108,6 +108,24 @@
     <t>Rp 10.000</t>
   </si>
   <si>
+    <t>CONFIG_ID</t>
+  </si>
+  <si>
+    <t>CONFIG_NAME</t>
+  </si>
+  <si>
+    <t>Test_23</t>
+  </si>
+  <si>
+    <t>Test_24</t>
+  </si>
+  <si>
+    <t>Test_25</t>
+  </si>
+  <si>
+    <t>Test_26</t>
+  </si>
+  <si>
     <t>WEEKDAY</t>
   </si>
   <si>
@@ -129,16 +147,16 @@
     <t>cofig exits by name</t>
   </si>
   <si>
-    <t>TEST_340</t>
+    <t>TEST_350</t>
   </si>
   <si>
     <t>Cofig Created Successfully</t>
   </si>
   <si>
-    <t>TEST_341</t>
-  </si>
-  <si>
-    <t>TEST_342</t>
+    <t>TEST_351</t>
+  </si>
+  <si>
+    <t>TEST_352</t>
   </si>
 </sst>
 </file>
@@ -841,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,6 +899,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1228,13 +1250,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="4" width="11.1428571428571" style="1" customWidth="1"/>
@@ -1270,7 +1292,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -1309,13 +1331,13 @@
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>88903200313</v>
       </c>
       <c r="F2" s="8">
-        <v>39000</v>
-      </c>
-      <c r="G2" s="14" t="s">
+        <v>41000</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="11">
@@ -1336,11 +1358,11 @@
       <c r="M2" s="11">
         <v>6</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="30" spans="1:14">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="6" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
@@ -1354,13 +1376,13 @@
       <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8">
-        <v>88903200553</v>
+      <c r="E3" s="16">
+        <v>88903200313</v>
       </c>
       <c r="F3" s="8">
-        <v>39000</v>
-      </c>
-      <c r="G3" s="14" t="s">
+        <v>41000</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="11">
@@ -1381,60 +1403,15 @@
       <c r="M3" s="11">
         <v>6</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
-      <c r="A4" s="6" t="str">
-        <f>_xlfn.CONCAT(B4:C4)</f>
-        <v>TC_001TD_03</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="N3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8">
-        <v>88903200553</v>
-      </c>
-      <c r="F4" s="8">
-        <v>39000</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
-      <c r="I4" s="11">
-        <v>5</v>
-      </c>
-      <c r="J4" s="11">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>9</v>
-      </c>
-      <c r="M4" s="11">
-        <v>6</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A4">
+  <conditionalFormatting sqref="A2:A3">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1486,12 +1463,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1528,18 +1505,18 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8">
         <v>88903200691</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="11">
@@ -1561,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
@@ -1576,18 +1553,18 @@
         <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8">
         <v>88903200691</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="11">
@@ -1609,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
@@ -1621,21 +1598,21 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="8">
         <v>88903200702</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="11">
@@ -1657,7 +1634,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
@@ -1672,7 +1649,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8">
         <v>88903200702</v>
@@ -1683,7 +1660,7 @@
       <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="11">
@@ -1705,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1723,24 +1700,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="18.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="24.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="18.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="19.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1750,38 +1725,17 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="str">
         <f>_xlfn.CONCAT(B2:C2)</f>
         <v>TC_001TD_01</v>
@@ -1792,38 +1746,17 @@
       <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8">
-        <v>88903200691</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2</v>
-      </c>
-      <c r="I2" s="11">
-        <v>5</v>
-      </c>
-      <c r="J2" s="11">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>9</v>
-      </c>
-      <c r="M2" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="str">
         <f>_xlfn.CONCAT(B3:C3)</f>
         <v>TC_001TD_02</v>
@@ -1834,38 +1767,17 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8">
-        <v>88903200691</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="11">
-        <v>5</v>
-      </c>
-      <c r="J3" s="11">
-        <v>6</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>9</v>
-      </c>
-      <c r="M3" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="str">
         <f>_xlfn.CONCAT(B4:C4)</f>
         <v>TC_001TD_03</v>
@@ -1874,40 +1786,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8">
-        <v>88903200702</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11">
-        <v>2</v>
-      </c>
-      <c r="I4" s="11">
-        <v>5</v>
-      </c>
-      <c r="J4" s="11">
-        <v>6</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11">
-        <v>9</v>
-      </c>
-      <c r="M4" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="str">
         <f>_xlfn.CONCAT(B5:C5)</f>
         <v>TC_001TD_04</v>
@@ -1918,35 +1809,14 @@
       <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8">
-        <v>88903200702</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11">
-        <v>6</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11">
-        <v>9</v>
-      </c>
-      <c r="M5" s="11">
-        <v>6</v>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1992,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2016,7 +1886,7 @@
         <v>88903200691</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" s="11">
         <v>2</v>
@@ -2052,7 +1922,7 @@
         <v>88903200691</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F3" s="11">
         <v>2</v>
@@ -2082,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8">
         <v>88903200702</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11">
         <v>2</v>
@@ -2124,7 +1994,7 @@
         <v>88903200702</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
@@ -2163,7 +2033,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2187,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
@@ -2205,13 +2075,13 @@
         <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2229,10 +2099,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2244,16 +2114,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2271,10 +2141,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
